--- a/experiment result cnn/2048_0.3_40_zs50_kappa_lp.xlsx
+++ b/experiment result cnn/2048_0.3_40_zs50_kappa_lp.xlsx
@@ -443,7 +443,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.006154712753942025</v>
+        <v>0.001184041871852357</v>
       </c>
     </row>
     <row r="3">
@@ -451,7 +451,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.002103854542473908</v>
+        <v>0.000400471997965594</v>
       </c>
     </row>
     <row r="4">
@@ -459,7 +459,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.005468831000928124</v>
+        <v>2.000199999995999e-05</v>
       </c>
     </row>
     <row r="5">
@@ -467,7 +467,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.004090227827343682</v>
+        <v>0.0004404359984480829</v>
       </c>
     </row>
     <row r="6">
@@ -475,7 +475,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.001159210419802802</v>
+        <v>0.00100251596738201</v>
       </c>
     </row>
     <row r="7">
@@ -483,7 +483,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.002555531376450271</v>
+        <v>0.001164931766972943</v>
       </c>
     </row>
     <row r="8">
@@ -491,7 +491,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.003584695024918246</v>
+        <v>0.0003001859998102324</v>
       </c>
     </row>
     <row r="9">
@@ -499,7 +499,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.00564973789778396</v>
+        <v>0.0006208859935389955</v>
       </c>
     </row>
     <row r="10">
@@ -507,7 +507,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.009110087959264403</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -515,7 +515,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.006428539676698472</v>
+        <v>0.0060200281714742</v>
       </c>
     </row>
     <row r="12">
@@ -523,7 +523,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.01859616373332587</v>
+        <v>0.034707889289548</v>
       </c>
     </row>
     <row r="13">
@@ -531,7 +531,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.000559774922322443</v>
+        <v>0.00174536522855141</v>
       </c>
     </row>
     <row r="14">
@@ -539,7 +539,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.006959446237360814</v>
+        <v>0.0001600999999037854</v>
       </c>
     </row>
     <row r="15">
@@ -547,7 +547,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.01485816244710387</v>
+        <v>0.04085989271843815</v>
       </c>
     </row>
     <row r="16">
@@ -555,7 +555,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.003639112818017296</v>
+        <v>0.0003203479988539055</v>
       </c>
     </row>
     <row r="17">
@@ -563,7 +563,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.01727449215730123</v>
+        <v>4.000799999935975e-05</v>
       </c>
     </row>
     <row r="18">
@@ -571,7 +571,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.001901313417350356</v>
+        <v>0.001084823767133764</v>
       </c>
     </row>
     <row r="19">
@@ -579,7 +579,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.004094795898901271</v>
+        <v>0.0002402439994130302</v>
       </c>
     </row>
     <row r="20">
@@ -587,7 +587,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0008183941607408406</v>
+        <v>0.004357785320960218</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.001541943601557395</v>
+        <v>0.01175619518791681</v>
       </c>
     </row>
     <row r="22">
@@ -603,7 +603,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.006856439916458521</v>
+        <v>6.001799999675806e-05</v>
       </c>
     </row>
     <row r="23">
@@ -611,7 +611,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.02370052647110784</v>
+        <v>2.000199999995999e-05</v>
       </c>
     </row>
     <row r="24">
@@ -619,7 +619,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.01488385082949962</v>
+        <v>0.01629528371884461</v>
       </c>
     </row>
     <row r="25">
@@ -627,7 +627,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.007943155997402014</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -635,7 +635,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.001761073132359625</v>
+        <v>0.015822875309956</v>
       </c>
     </row>
     <row r="27">
@@ -643,7 +643,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0001190902770905284</v>
+        <v>0.000100021999996678</v>
       </c>
     </row>
     <row r="28">
@@ -651,7 +651,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.006825219789277914</v>
+        <v>0.0006410439929873789</v>
       </c>
     </row>
     <row r="29">
@@ -659,7 +659,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.001941517996881603</v>
+        <v>0.001653120894465813</v>
       </c>
     </row>
     <row r="30">
@@ -667,7 +667,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.002527867140387563</v>
+        <v>4.000799999935975e-05</v>
       </c>
     </row>
     <row r="31">
@@ -675,7 +675,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.002020145679388452</v>
+        <v>0.0003404099984558094</v>
       </c>
     </row>
     <row r="32">
@@ -683,7 +683,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.002021740601373449</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -691,7 +691,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.008889418695509327</v>
+        <v>0.0001400499967810652</v>
       </c>
     </row>
     <row r="34">
@@ -699,7 +699,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.01108942817326143</v>
+        <v>0.0003001619998313752</v>
       </c>
     </row>
     <row r="35">
@@ -707,7 +707,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.003003171406792487</v>
+        <v>0.01681780399685262</v>
       </c>
     </row>
     <row r="36">
@@ -715,7 +715,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0005587728138716856</v>
+        <v>0.002230488899691379</v>
       </c>
     </row>
     <row r="37">
@@ -723,7 +723,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.007513446080174803</v>
+        <v>0.01218613573164634</v>
       </c>
     </row>
     <row r="38">
@@ -731,7 +731,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.00942429867942777</v>
+        <v>0.005186840355035803</v>
       </c>
     </row>
     <row r="39">
@@ -739,7 +739,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.002084067118964415</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -747,7 +747,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.00218896814849467</v>
+        <v>6.000999999931974e-05</v>
       </c>
     </row>
     <row r="41">
@@ -755,7 +755,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.003626009705362673</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -763,7 +763,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.003264869946391594</v>
+        <v>0.003121731351466155</v>
       </c>
     </row>
     <row r="43">
@@ -771,7 +771,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.00267124701229003</v>
+        <v>8.00319999897518e-05</v>
       </c>
     </row>
     <row r="44">
@@ -779,7 +779,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.009403827376667616</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -787,7 +787,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.006067730630459114</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -795,7 +795,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.004030173400910332</v>
+        <v>0.0111300921065837</v>
       </c>
     </row>
     <row r="47">
@@ -803,7 +803,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.00448092455546889</v>
+        <v>0.0003806499955856762</v>
       </c>
     </row>
     <row r="48">
@@ -811,7 +811,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.003492325072651014</v>
+        <v>4.000799999935975e-05</v>
       </c>
     </row>
     <row r="49">
@@ -819,7 +819,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.00667687479531664</v>
+        <v>0.003142095797738417</v>
       </c>
     </row>
     <row r="50">
@@ -827,7 +827,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.006242748042889623</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -835,7 +835,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0.001602357720867477</v>
+        <v>0.006710725666021472</v>
       </c>
     </row>
     <row r="52">
@@ -843,7 +843,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>0.05839066266770606</v>
+        <v>0.002115679558499712</v>
       </c>
     </row>
     <row r="53">
@@ -851,7 +851,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>0.03368241986786205</v>
+        <v>0.04750667622522921</v>
       </c>
     </row>
     <row r="54">
@@ -859,7 +859,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>0.01959425802143887</v>
+        <v>2.000199999995999e-05</v>
       </c>
     </row>
     <row r="55">
@@ -867,7 +867,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>0.03296559569313354</v>
+        <v>4.000399999991998e-05</v>
       </c>
     </row>
     <row r="56">
@@ -875,7 +875,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>0.01157473599659444</v>
+        <v>0.009482154300926238</v>
       </c>
     </row>
     <row r="57">
@@ -883,7 +883,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>0.01559367236747403</v>
+        <v>0.05457670122273589</v>
       </c>
     </row>
     <row r="58">
@@ -891,7 +891,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>0.01490021503692148</v>
+        <v>0.001104649315824539</v>
       </c>
     </row>
     <row r="59">
@@ -899,7 +899,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>0.00841804703360686</v>
+        <v>0.02759542679684098</v>
       </c>
     </row>
     <row r="60">
@@ -907,7 +907,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>0.08429723451421574</v>
+        <v>0.002980892125541957</v>
       </c>
     </row>
     <row r="61">
@@ -915,7 +915,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>0.01943185844613175</v>
+        <v>0.009356359020328385</v>
       </c>
     </row>
     <row r="62">
@@ -923,7 +923,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>0.009023496460855578</v>
+        <v>0.07899448524830334</v>
       </c>
     </row>
     <row r="63">
@@ -931,7 +931,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>0.001017035466971293</v>
+        <v>0.036176616704404</v>
       </c>
     </row>
     <row r="64">
@@ -939,7 +939,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>0.008775984159503158</v>
+        <v>0.1040079960638976</v>
       </c>
     </row>
     <row r="65">
@@ -947,7 +947,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>0.08419159652274363</v>
+        <v>0.003322202464627243</v>
       </c>
     </row>
     <row r="66">
@@ -955,7 +955,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>0.01133290748116976</v>
+        <v>0.03161305189514925</v>
       </c>
     </row>
     <row r="67">
@@ -963,7 +963,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>0.001238627849458866</v>
+        <v>0.1456585228389287</v>
       </c>
     </row>
     <row r="68">
@@ -971,7 +971,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>0.04600634392980524</v>
+        <v>0.0321617222722889</v>
       </c>
     </row>
     <row r="69">
@@ -979,7 +979,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>0.06748257130757378</v>
+        <v>0.009182579396212106</v>
       </c>
     </row>
     <row r="70">
@@ -987,7 +987,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>0.02021599897674793</v>
+        <v>0.005804321659190222</v>
       </c>
     </row>
     <row r="71">
@@ -995,7 +995,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>0.04112343213358052</v>
+        <v>0.0009429536226851604</v>
       </c>
     </row>
     <row r="72">
@@ -1003,7 +1003,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>0.00608287745094608</v>
+        <v>0.01583471855830714</v>
       </c>
     </row>
     <row r="73">
@@ -1011,7 +1011,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>0.007948116341609997</v>
+        <v>0.0006415079786022338</v>
       </c>
     </row>
     <row r="74">
@@ -1019,7 +1019,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0002550334734480313</v>
+        <v>0.01870356747829715</v>
       </c>
     </row>
     <row r="75">
@@ -1027,7 +1027,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>0.002742385597026408</v>
+        <v>0.006896657699048697</v>
       </c>
     </row>
     <row r="76">
@@ -1035,7 +1035,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0238188866953791</v>
+        <v>0.01039922071422082</v>
       </c>
     </row>
     <row r="77">
@@ -1043,7 +1043,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>0.07678566456678616</v>
+        <v>0.02345564438002237</v>
       </c>
     </row>
     <row r="78">
@@ -1051,7 +1051,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>0.0007362403482826578</v>
+        <v>6.000999999931974e-05</v>
       </c>
     </row>
     <row r="79">
@@ -1059,7 +1059,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>0.0005383349397612918</v>
+        <v>0.01720850341798483</v>
       </c>
     </row>
     <row r="80">
@@ -1067,7 +1067,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>0.0252327859920347</v>
+        <v>0.05894443282717104</v>
       </c>
     </row>
     <row r="81">
@@ -1075,7 +1075,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>0.1261680891856115</v>
+        <v>0.01308473706949826</v>
       </c>
     </row>
     <row r="82">
@@ -1083,7 +1083,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>0.004594130763507939</v>
+        <v>0.008485056231003997</v>
       </c>
     </row>
     <row r="83">
@@ -1091,7 +1091,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>0.002283134957021643</v>
+        <v>0.006371714702437289</v>
       </c>
     </row>
     <row r="84">
@@ -1099,7 +1099,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>0.008588097269335538</v>
+        <v>0.00295164541268651</v>
       </c>
     </row>
     <row r="85">
@@ -1107,7 +1107,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>0.05548001352332834</v>
+        <v>0.02229479991262857</v>
       </c>
     </row>
     <row r="86">
@@ -1115,7 +1115,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>0.03350718063145511</v>
+        <v>0.004166581798597241</v>
       </c>
     </row>
     <row r="87">
@@ -1123,7 +1123,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>0.007582069861495916</v>
+        <v>0.006863031250617091</v>
       </c>
     </row>
     <row r="88">
@@ -1131,7 +1131,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>0.09355283119850413</v>
+        <v>0.01551446358660895</v>
       </c>
     </row>
     <row r="89">
@@ -1139,7 +1139,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>0.0781396884124119</v>
+        <v>0.004758405650934001</v>
       </c>
     </row>
     <row r="90">
@@ -1147,7 +1147,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>0.04151457372388848</v>
+        <v>0.01358166627961132</v>
       </c>
     </row>
     <row r="91">
@@ -1155,7 +1155,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>0.002897917581847259</v>
+        <v>0.001708409360298562</v>
       </c>
     </row>
     <row r="92">
@@ -1163,7 +1163,7 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>0.02503231955012172</v>
+        <v>0.03135708723797705</v>
       </c>
     </row>
     <row r="93">
@@ -1171,7 +1171,7 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>0.002974000523501617</v>
+        <v>0.1644650890750166</v>
       </c>
     </row>
     <row r="94">
@@ -1179,7 +1179,7 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>0.04336747114366892</v>
+        <v>0.01669558834518258</v>
       </c>
     </row>
     <row r="95">
@@ -1187,7 +1187,7 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>0.02449054051864649</v>
+        <v>0.1690233313076256</v>
       </c>
     </row>
     <row r="96">
@@ -1195,7 +1195,7 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>0.0556101391814741</v>
+        <v>0.02333767063651047</v>
       </c>
     </row>
     <row r="97">
@@ -1203,7 +1203,7 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>0.03733263174779763</v>
+        <v>0.1379959964244067</v>
       </c>
     </row>
     <row r="98">
@@ -1211,7 +1211,7 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>0.008138953938249493</v>
+        <v>0.1718990076556359</v>
       </c>
     </row>
     <row r="99">
@@ -1219,7 +1219,7 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>0.1033418216177975</v>
+        <v>0.1743085218377876</v>
       </c>
     </row>
     <row r="100">
@@ -1227,7 +1227,7 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>0.001199924592112264</v>
+        <v>0.01038547811548011</v>
       </c>
     </row>
     <row r="101">
@@ -1235,7 +1235,7 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>0.01078133591358136</v>
+        <v>0.1752158053260122</v>
       </c>
     </row>
   </sheetData>
